--- a/04-English/EN2_work.xlsx
+++ b/04-English/EN2_work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
   <si>
     <t>assumption</t>
   </si>
@@ -797,6 +797,15 @@
   </si>
   <si>
     <t>kizarolag</t>
+  </si>
+  <si>
+    <t>right away</t>
+  </si>
+  <si>
+    <t>azonnal</t>
+  </si>
+  <si>
+    <t>not all changes need to be released right away</t>
   </si>
 </sst>
 </file>
@@ -1158,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2209,6 +2218,17 @@
       </c>
       <c r="B127" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/04-English/EN2_work.xlsx
+++ b/04-English/EN2_work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
   <si>
     <t>assumption</t>
   </si>
@@ -784,9 +784,6 @@
     <t>elnyom</t>
   </si>
   <si>
-    <t>PSA - Professional Services Automation</t>
-  </si>
-  <si>
     <t>contemporary</t>
   </si>
   <si>
@@ -806,6 +803,54 @@
   </si>
   <si>
     <t>not all changes need to be released right away</t>
+  </si>
+  <si>
+    <t>vows</t>
+  </si>
+  <si>
+    <t>esku</t>
+  </si>
+  <si>
+    <t>they made wovs each other</t>
+  </si>
+  <si>
+    <t>mollify</t>
+  </si>
+  <si>
+    <t>megengesztel, meglagyit</t>
+  </si>
+  <si>
+    <t>mollify his suffering</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>joslat, jovendoles</t>
+  </si>
+  <si>
+    <t>traitors</t>
+  </si>
+  <si>
+    <t>arulok</t>
+  </si>
+  <si>
+    <t>sorrow</t>
+  </si>
+  <si>
+    <t>banat, szomorusag</t>
+  </si>
+  <si>
+    <t>didn’t forget the sorrow</t>
+  </si>
+  <si>
+    <t>barrow</t>
+  </si>
+  <si>
+    <t>talicska, hordagy?</t>
+  </si>
+  <si>
+    <t>ghost from the barrow</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,17 +2236,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>251</v>
-      </c>
-    </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
         <v>252</v>
-      </c>
-      <c r="B125" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2214,21 +2254,81 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
         <v>254</v>
-      </c>
-      <c r="B127" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>257</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>258</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
